--- a/biology/Microbiologie/Entodiniomorphida/Entodiniomorphida.xlsx
+++ b/biology/Microbiologie/Entodiniomorphida/Entodiniomorphida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Entodiniomorphida sont un ordre de Ciliés de la classe des Litostomatea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (5 mars 2024)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (5 mars 2024) :
 sous-ordre des Archistomatina de Puytorac et al., 1974
 Buetschliidae Poche, 1913
 sous-ordre des Blepharocorythina Wolska, 1971
@@ -527,7 +541,7 @@
 Telamodiniidae Latteur &amp; Dufey, 1967
 Polydiniellidae Corliss, 1960
 Troglodytellidae Corliss, 1979
-Selon l'IRMNG  (5 mars 2024)[2] :
+Selon l'IRMNG  (5 mars 2024) :
 Cycloposthiidae
 Ditoxidae
 Gilchristinidae Ito, Ishihara &amp; Imai, 2014
@@ -537,7 +551,7 @@
 Rhinozetidae
 Spirodiniidae
 Troglodytellidae
-Selon l'AlgaeBase                                           (5 mars 2024)[3] :
+Selon l'AlgaeBase                                           (5 mars 2024) :
 Cycloposthiidae Poche
 Ophryoscolecidae F.Stein
 Parentodiniidae A.Ito, Y.Miyazaki &amp; So.Imai
